--- a/biology/Botanique/Jean_Comandon/Jean_Comandon.xlsx
+++ b/biology/Botanique/Jean_Comandon/Jean_Comandon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Comandon est un médecin français né le 3 août 1877 à Jarnac (Charente) et mort le 30 octobre 1970 (à 93 ans) à Sèvres (Hauts-de-Seine)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Comandon est un médecin français né le 3 août 1877 à Jarnac (Charente) et mort le 30 octobre 1970 (à 93 ans) à Sèvres (Hauts-de-Seine).
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Comandon est le fils de Louis Elie Comandon, négociant en cognac, président-fondateur du Syndicat agricole des cantons de Jarnac, Segonzac et Châteauneuf, et d'Adèle Marthe Voland.
-Docteur en médecine, il invente la microphotographie en 1908 ; il convient cependant de se souvenir que le docteur Alfred Donné (1801-1878) et le physicien Léon Foucault (1819-1868) avaient mis au point dès 1840 un microscope daguerréotype qui leur avait permis d'éditer en 1844 un Atlas  complémentaire au Cours de microscopie proposant 86 figures[2]. Il est aussi un des précurseurs dans l'utilisation du cinéma à but scientifique. Il l'utilise en particulier à des fins éthologiques ou botaniques. Il put ainsi décomposer le mouvement de cellules animales en le filmant grâce à des caméras couplées à des microscopes. Il étudia également la croissance des végétaux[3].
-Il prend la direction, en 1926, du Laboratoire de biologie et de cinématographie scientifique, fondé par le mécène Albert Kahn[4]. Il fut longtemps le chef du Service de cinématographie technique à la Direction générale de la recherche et de l'innovation. Ses archives de films (plus de 400) sont abritées par l'Institut Pasteur.
-Jean Comandon a été, selon Philippe Esnault, une « grande figure de créateur, hélas ! l'une des plus méconnues du cinéma français »[5],[6].
+Docteur en médecine, il invente la microphotographie en 1908 ; il convient cependant de se souvenir que le docteur Alfred Donné (1801-1878) et le physicien Léon Foucault (1819-1868) avaient mis au point dès 1840 un microscope daguerréotype qui leur avait permis d'éditer en 1844 un Atlas  complémentaire au Cours de microscopie proposant 86 figures. Il est aussi un des précurseurs dans l'utilisation du cinéma à but scientifique. Il l'utilise en particulier à des fins éthologiques ou botaniques. Il put ainsi décomposer le mouvement de cellules animales en le filmant grâce à des caméras couplées à des microscopes. Il étudia également la croissance des végétaux.
+Il prend la direction, en 1926, du Laboratoire de biologie et de cinématographie scientifique, fondé par le mécène Albert Kahn. Il fut longtemps le chef du Service de cinématographie technique à la Direction générale de la recherche et de l'innovation. Ses archives de films (plus de 400) sont abritées par l'Institut Pasteur.
+Jean Comandon a été, selon Philippe Esnault, une « grande figure de créateur, hélas ! l'une des plus méconnues du cinéma français »,.
 Odette Comandon, conteuse en saintongeais, est sa petite-nièce par alliance.
 Il est inhumé au cimetière des Bruyères à Sèvres (Hauts-de-Seine).
 </t>
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de l'Instruction publique
  Commandeur de l'ordre des Palmes académiques
